--- a/SCBAA/2017/BARMM.xlsx
+++ b/SCBAA/2017/BARMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BC64CC-133D-4C97-B769-AB71AF1DD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18234004-B280-49E1-BEF5-A82C638BF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" activeTab="2" xr2:uid="{4B8B3C91-29D5-4C09-9D3F-E1EF0A9182AF}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{4B8B3C91-29D5-4C09-9D3F-E1EF0A9182AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Isabela" sheetId="1" r:id="rId1"/>
@@ -604,6 +604,16 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,16 +625,6 @@
     </xf>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C8991-191F-4B0C-B317-0B9737D545F0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,54 +963,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1024,22 +1024,22 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -1108,7 +1108,6 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>15479373.959999999</v>
       </c>
     </row>
@@ -1162,7 +1161,6 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>14376663.810000001</v>
       </c>
     </row>
@@ -1353,7 +1351,6 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>536052777.15999997</v>
       </c>
     </row>
@@ -1930,7 +1927,6 @@
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>499098191.59999996</v>
       </c>
     </row>
@@ -2096,7 +2092,6 @@
         <v>2</v>
       </c>
       <c r="E110" s="21">
-        <f>48980+99190</f>
         <v>148170</v>
       </c>
       <c r="F110" s="37"/>
@@ -2106,7 +2101,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>148170</v>
       </c>
     </row>
@@ -2118,7 +2112,6 @@
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>499246361.59999996</v>
       </c>
     </row>
@@ -2153,54 +2146,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -2214,22 +2207,22 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -3330,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F3DEC-0E3E-4BE9-AB1F-EBBEE4E6F55A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -3344,54 +3337,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3405,22 +3398,22 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -3466,7 +3459,7 @@
       <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3477,7 +3470,7 @@
       <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3509,7 +3502,7 @@
       <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3513,7 @@
       <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3531,7 +3524,7 @@
       <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3563,7 +3556,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="46">
+      <c r="E21" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3585,7 +3578,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="47"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
@@ -3605,7 +3598,7 @@
       <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3616,7 +3609,7 @@
       <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +3640,7 @@
       <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="42">
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +3651,7 @@
       <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="44">
         <v>0</v>
       </c>
     </row>
@@ -3743,7 +3736,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="49"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
@@ -4146,7 +4139,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="48"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
@@ -4177,7 +4170,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="43"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
@@ -4218,7 +4211,7 @@
       <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4229,7 +4222,7 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4249,7 +4242,7 @@
       <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="49">
+      <c r="E87" s="45">
         <v>0</v>
       </c>
     </row>
